--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{5600EBDC-8095-4BF3-BEC3-05A8D1F3F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A55B926-2C19-4298-BB64-5415FD405420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1980" windowWidth="11235" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>ACTIVITY</t>
   </si>
   <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
     <t>Activity 12</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Frontend</t>
+  </si>
+  <si>
+    <t>Activity 11d</t>
   </si>
 </sst>
 </file>
@@ -635,6 +635,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,21 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -717,7 +717,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -854,232 +854,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1095,119 +869,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1599,7 +1260,7 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1617,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="2:75" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1627,80 +1288,80 @@
     </row>
     <row r="2" spans="2:75" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="14">
         <v>67</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="K2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="Q2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="2:75" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>0</v>
@@ -1724,24 +1385,24 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="39" t="s">
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BQ3" s="39" t="s">
+      <c r="BV3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="BV3" s="11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1829,7 +1490,7 @@
       <c r="AJ4" s="3">
         <v>29</v>
       </c>
-      <c r="AK4" s="38">
+      <c r="AK4" s="23">
         <v>30</v>
       </c>
       <c r="AL4" s="3">
@@ -1949,7 +1610,7 @@
     </row>
     <row r="5" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -1966,11 +1627,11 @@
       <c r="G5" s="8">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="37"/>
+      <c r="AK5" s="22"/>
     </row>
     <row r="6" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -1987,11 +1648,11 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="AK6" s="37"/>
+      <c r="AK6" s="22"/>
     </row>
     <row r="7" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>9</v>
@@ -2008,11 +1669,11 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="AK7" s="37"/>
+      <c r="AK7" s="22"/>
     </row>
     <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -2029,11 +1690,11 @@
       <c r="G8" s="8">
         <v>0.1</v>
       </c>
-      <c r="AK8" s="37"/>
+      <c r="AK8" s="22"/>
     </row>
     <row r="9" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7">
         <v>13</v>
@@ -2050,11 +1711,11 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="AK9" s="37"/>
+      <c r="AK9" s="22"/>
     </row>
     <row r="10" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7">
         <v>15</v>
@@ -2071,11 +1732,11 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="AK10" s="37"/>
+      <c r="AK10" s="22"/>
     </row>
     <row r="11" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7">
         <v>15</v>
@@ -2092,11 +1753,11 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="AK11" s="37"/>
+      <c r="AK11" s="22"/>
     </row>
     <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>26</v>
@@ -2113,11 +1774,11 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="AK12" s="37"/>
+      <c r="AK12" s="22"/>
     </row>
     <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>51</v>
@@ -2134,11 +1795,11 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="AK13" s="37"/>
+      <c r="AK13" s="22"/>
     </row>
     <row r="14" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>62</v>
@@ -2155,11 +1816,11 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="AK14" s="37"/>
+      <c r="AK14" s="22"/>
     </row>
     <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2176,11 +1837,11 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="AK15" s="37"/>
+      <c r="AK15" s="22"/>
     </row>
     <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2197,11 +1858,11 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="AK16" s="37"/>
+      <c r="AK16" s="22"/>
     </row>
     <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2218,11 +1879,11 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="AK17" s="37"/>
+      <c r="AK17" s="22"/>
     </row>
     <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2239,11 +1900,11 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="AK18" s="37"/>
+      <c r="AK18" s="22"/>
     </row>
     <row r="19" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2260,11 +1921,11 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="AK19" s="37"/>
+      <c r="AK19" s="22"/>
     </row>
     <row r="20" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2281,11 +1942,11 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="AK20" s="37"/>
+      <c r="AK20" s="22"/>
     </row>
     <row r="21" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2302,11 +1963,11 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="AK21" s="37"/>
+      <c r="AK21" s="22"/>
     </row>
     <row r="22" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2323,11 +1984,11 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="AK22" s="37"/>
+      <c r="AK22" s="22"/>
     </row>
     <row r="23" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2344,11 +2005,11 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="AK23" s="37"/>
+      <c r="AK23" s="22"/>
     </row>
     <row r="24" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2365,11 +2026,11 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="AK24" s="37"/>
+      <c r="AK24" s="22"/>
     </row>
     <row r="25" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2386,11 +2047,11 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="AK25" s="37"/>
+      <c r="AK25" s="22"/>
     </row>
     <row r="26" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2407,11 +2068,11 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="AK26" s="37"/>
+      <c r="AK26" s="22"/>
     </row>
     <row r="27" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2428,11 +2089,11 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="AK27" s="37"/>
+      <c r="AK27" s="22"/>
     </row>
     <row r="28" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2449,11 +2110,11 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="AK28" s="37"/>
+      <c r="AK28" s="22"/>
     </row>
     <row r="29" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2470,11 +2131,11 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="AK29" s="37"/>
+      <c r="AK29" s="22"/>
     </row>
     <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2491,15 +2152,15 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="AK30" s="37"/>
-      <c r="BP30" s="41"/>
-      <c r="BQ30" s="41"/>
-      <c r="BR30" s="41"/>
-      <c r="BS30" s="41"/>
-      <c r="BT30" s="41"/>
-      <c r="BU30" s="41"/>
-      <c r="BV30" s="41"/>
-      <c r="BW30" s="41"/>
+      <c r="AK30" s="22"/>
+      <c r="BP30" s="26"/>
+      <c r="BQ30" s="26"/>
+      <c r="BR30" s="26"/>
+      <c r="BS30" s="26"/>
+      <c r="BT30" s="26"/>
+      <c r="BU30" s="26"/>
+      <c r="BV30" s="26"/>
+      <c r="BW30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2516,69 +2177,69 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BW30">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="18" priority="37">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="17" priority="38">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="16" priority="39">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="15" priority="40">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="14" priority="41">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="11" priority="36">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4 BR4 BU4">
-    <cfRule type="expression" dxfId="34" priority="42">
+    <cfRule type="expression" dxfId="10" priority="42">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP4 BS4 BV4">
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="9" priority="32">
       <formula>BP$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP31">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>BP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A55B926-2C19-4298-BB64-5415FD405420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3285F-C1DD-4598-AFB0-6F3C8160079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,15 +587,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -694,6 +685,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -717,7 +717,120 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1260,7 +1373,7 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1277,132 +1390,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:75" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:75" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <v>67</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="34" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="27" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="39" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-    </row>
-    <row r="3" spans="2:75" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+    </row>
+    <row r="3" spans="2:75" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="24" t="s">
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="BQ3" s="24" t="s">
+      <c r="BQ3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BV3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1490,7 +1603,7 @@
       <c r="AJ4" s="3">
         <v>29</v>
       </c>
-      <c r="AK4" s="23">
+      <c r="AK4" s="20">
         <v>30</v>
       </c>
       <c r="AL4" s="3">
@@ -1608,559 +1721,559 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="39">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="39">
+        <v>5</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="AK5" s="19"/>
+    </row>
+    <row r="6" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="39">
+        <v>7</v>
+      </c>
+      <c r="D6" s="39">
+        <v>2</v>
+      </c>
+      <c r="E6" s="39">
+        <v>7</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="19"/>
+    </row>
+    <row r="7" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="39">
+        <v>9</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2</v>
+      </c>
+      <c r="E7" s="39">
+        <v>9</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="19"/>
+    </row>
+    <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="39">
+        <v>11</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39">
+        <v>4</v>
+      </c>
+      <c r="F8" s="39">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AK8" s="19"/>
+    </row>
+    <row r="9" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="39">
+        <v>13</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2</v>
+      </c>
+      <c r="E9" s="39">
+        <v>13</v>
+      </c>
+      <c r="F9" s="39">
+        <v>2</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="19"/>
+    </row>
+    <row r="10" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="39">
+        <v>15</v>
+      </c>
+      <c r="D10" s="39">
+        <v>16</v>
+      </c>
+      <c r="E10" s="39">
+        <v>15</v>
+      </c>
+      <c r="F10" s="39">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="19"/>
+    </row>
+    <row r="11" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="39">
+        <v>15</v>
+      </c>
+      <c r="D11" s="39">
+        <v>36</v>
+      </c>
+      <c r="E11" s="39">
+        <v>15</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1</v>
+      </c>
+      <c r="G11" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="19"/>
+    </row>
+    <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="39">
+        <v>26</v>
+      </c>
+      <c r="D12" s="39">
+        <v>4</v>
+      </c>
+      <c r="E12" s="39">
+        <v>26</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="19"/>
+    </row>
+    <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="39">
+        <v>51</v>
+      </c>
+      <c r="D13" s="39">
+        <v>5</v>
+      </c>
+      <c r="E13" s="39">
+        <v>51</v>
+      </c>
+      <c r="F13" s="39">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="19"/>
+    </row>
+    <row r="14" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="39">
+        <v>62</v>
+      </c>
+      <c r="D14" s="39">
+        <v>5</v>
+      </c>
+      <c r="E14" s="39">
+        <v>62</v>
+      </c>
+      <c r="F14" s="39">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="19"/>
+    </row>
+    <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0</v>
+      </c>
+      <c r="G15" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="19"/>
+    </row>
+    <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="19"/>
+    </row>
+    <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AK5" s="22"/>
-    </row>
-    <row r="6" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C17" s="39">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
+      <c r="G17" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="19"/>
+    </row>
+    <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="19"/>
+    </row>
+    <row r="19" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="39">
+        <v>0</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="19"/>
+    </row>
+    <row r="20" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="19"/>
+    </row>
+    <row r="21" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="22"/>
-    </row>
-    <row r="7" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C21" s="39">
+        <v>0</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="19"/>
+    </row>
+    <row r="22" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="39">
+        <v>0</v>
+      </c>
+      <c r="D22" s="39">
+        <v>0</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="19"/>
+    </row>
+    <row r="23" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="22"/>
-    </row>
-    <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C23" s="39">
+        <v>0</v>
+      </c>
+      <c r="D23" s="39">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0</v>
+      </c>
+      <c r="G23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="19"/>
+    </row>
+    <row r="24" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="39">
+        <v>0</v>
+      </c>
+      <c r="D24" s="39">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0</v>
+      </c>
+      <c r="F24" s="39">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="19"/>
+    </row>
+    <row r="25" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AK8" s="22"/>
-    </row>
-    <row r="9" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="C25" s="39">
+        <v>0</v>
+      </c>
+      <c r="D25" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="19"/>
+    </row>
+    <row r="26" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="19"/>
+    </row>
+    <row r="27" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="22"/>
-    </row>
-    <row r="10" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="C27" s="39">
+        <v>0</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="19"/>
+    </row>
+    <row r="28" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="39">
+        <v>0</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="19"/>
+    </row>
+    <row r="29" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C29" s="39">
+        <v>0</v>
+      </c>
+      <c r="D29" s="39">
+        <v>0</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="19"/>
+    </row>
+    <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="22"/>
-    </row>
-    <row r="11" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="22"/>
-    </row>
-    <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="22"/>
-    </row>
-    <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7">
-        <v>51</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="22"/>
-    </row>
-    <row r="14" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7">
-        <v>62</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>62</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="22"/>
-    </row>
-    <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="22"/>
-    </row>
-    <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="22"/>
-    </row>
-    <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="22"/>
-    </row>
-    <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="22"/>
-    </row>
-    <row r="19" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="22"/>
-    </row>
-    <row r="20" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="22"/>
-    </row>
-    <row r="21" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="22"/>
-    </row>
-    <row r="22" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="22"/>
-    </row>
-    <row r="23" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="22"/>
-    </row>
-    <row r="24" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="22"/>
-    </row>
-    <row r="25" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="22"/>
-    </row>
-    <row r="26" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="22"/>
-    </row>
-    <row r="27" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="22"/>
-    </row>
-    <row r="28" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="22"/>
-    </row>
-    <row r="29" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="22"/>
-    </row>
-    <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="22"/>
-      <c r="BP30" s="26"/>
-      <c r="BQ30" s="26"/>
-      <c r="BR30" s="26"/>
-      <c r="BS30" s="26"/>
-      <c r="BT30" s="26"/>
-      <c r="BU30" s="26"/>
-      <c r="BV30" s="26"/>
-      <c r="BW30" s="26"/>
+      <c r="C30" s="39">
+        <v>0</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0</v>
+      </c>
+      <c r="E30" s="39">
+        <v>0</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0</v>
+      </c>
+      <c r="G30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="19"/>
+      <c r="BP30" s="23"/>
+      <c r="BQ30" s="23"/>
+      <c r="BR30" s="23"/>
+      <c r="BS30" s="23"/>
+      <c r="BT30" s="23"/>
+      <c r="BU30" s="23"/>
+      <c r="BV30" s="23"/>
+      <c r="BW30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2176,76 +2289,102 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BW30">
-    <cfRule type="expression" dxfId="19" priority="35">
+  <conditionalFormatting sqref="H5:BW8 H10:BW13 H9:K9 M9:BW9 H15:BW30 H14:J14 L14:BW14">
+    <cfRule type="expression" dxfId="27" priority="35">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="40">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="41">
+    <cfRule type="expression" dxfId="22" priority="41">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="45">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="46">
+    <cfRule type="expression" dxfId="20" priority="46">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="11" priority="36">
+    <cfRule type="expression" dxfId="19" priority="36">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4 BR4 BU4">
-    <cfRule type="expression" dxfId="10" priority="42">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP4 BS4 BV4">
-    <cfRule type="expression" dxfId="9" priority="32">
+    <cfRule type="expression" dxfId="17" priority="32">
       <formula>BP$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP31">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>BP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ4 BT4 BW4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>BQ$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="7" priority="55">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="56">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="57">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="58">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>L$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="61">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="62">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3285F-C1DD-4598-AFB0-6F3C8160079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07857094-7A5F-4881-A121-1B381A0DE514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -641,6 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -685,15 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1373,7 +1373,7 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1414,66 +1414,66 @@
         <v>67</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="35"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="2:75" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1510,12 +1510,12 @@
       </c>
     </row>
     <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1722,547 +1722,547 @@
       </c>
     </row>
     <row r="5" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="24">
         <v>2</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="24">
         <v>5</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="24">
         <v>2</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="24">
         <v>5</v>
       </c>
-      <c r="G5" s="40">
-        <v>0.8</v>
+      <c r="G5" s="25">
+        <v>0.9</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="24">
         <v>7</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="24">
         <v>7</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="25">
         <v>0</v>
       </c>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="24">
         <v>9</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="24">
         <v>2</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="24">
         <v>9</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="24">
         <v>1</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="25">
         <v>0</v>
       </c>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="24">
         <v>11</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="24">
         <v>2</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="24">
         <v>4</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="25">
         <v>0.5</v>
       </c>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="24">
         <v>13</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="24">
         <v>2</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="24">
         <v>13</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="24">
         <v>2</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="25">
         <v>0</v>
       </c>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="24">
         <v>15</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="24">
         <v>16</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="24">
         <v>15</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="25">
         <v>0</v>
       </c>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="24">
         <v>15</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="24">
         <v>36</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="24">
         <v>15</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="25">
         <v>0</v>
       </c>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="24">
         <v>26</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="24">
         <v>26</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="25">
         <v>0</v>
       </c>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="24">
         <v>51</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="24">
         <v>5</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="24">
         <v>51</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="24">
         <v>1</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="25">
         <v>0</v>
       </c>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="24">
         <v>62</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="24">
         <v>5</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="24">
         <v>62</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="24">
         <v>1</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="25">
         <v>0</v>
       </c>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39">
-        <v>0</v>
-      </c>
-      <c r="D15" s="39">
-        <v>0</v>
-      </c>
-      <c r="E15" s="39">
-        <v>0</v>
-      </c>
-      <c r="F15" s="39">
-        <v>0</v>
-      </c>
-      <c r="G15" s="40">
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
         <v>0</v>
       </c>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="39">
-        <v>0</v>
-      </c>
-      <c r="D16" s="39">
-        <v>0</v>
-      </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="39">
-        <v>0</v>
-      </c>
-      <c r="G16" s="40">
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
         <v>0</v>
       </c>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="39">
-        <v>0</v>
-      </c>
-      <c r="D17" s="39">
-        <v>0</v>
-      </c>
-      <c r="E17" s="39">
-        <v>0</v>
-      </c>
-      <c r="F17" s="39">
-        <v>0</v>
-      </c>
-      <c r="G17" s="40">
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
         <v>0</v>
       </c>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="39">
-        <v>0</v>
-      </c>
-      <c r="D18" s="39">
-        <v>0</v>
-      </c>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="39">
-        <v>0</v>
-      </c>
-      <c r="G18" s="40">
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
         <v>0</v>
       </c>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="39">
-        <v>0</v>
-      </c>
-      <c r="D19" s="39">
-        <v>0</v>
-      </c>
-      <c r="E19" s="39">
-        <v>0</v>
-      </c>
-      <c r="F19" s="39">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40">
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
         <v>0</v>
       </c>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="39">
-        <v>0</v>
-      </c>
-      <c r="D20" s="39">
-        <v>0</v>
-      </c>
-      <c r="E20" s="39">
-        <v>0</v>
-      </c>
-      <c r="F20" s="39">
-        <v>0</v>
-      </c>
-      <c r="G20" s="40">
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
         <v>0</v>
       </c>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="39">
-        <v>0</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0</v>
-      </c>
-      <c r="E21" s="39">
-        <v>0</v>
-      </c>
-      <c r="F21" s="39">
-        <v>0</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
         <v>0</v>
       </c>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="39">
-        <v>0</v>
-      </c>
-      <c r="D22" s="39">
-        <v>0</v>
-      </c>
-      <c r="E22" s="39">
-        <v>0</v>
-      </c>
-      <c r="F22" s="39">
-        <v>0</v>
-      </c>
-      <c r="G22" s="40">
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
         <v>0</v>
       </c>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="39">
-        <v>0</v>
-      </c>
-      <c r="D23" s="39">
-        <v>0</v>
-      </c>
-      <c r="E23" s="39">
-        <v>0</v>
-      </c>
-      <c r="F23" s="39">
-        <v>0</v>
-      </c>
-      <c r="G23" s="40">
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
         <v>0</v>
       </c>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="39">
-        <v>0</v>
-      </c>
-      <c r="D24" s="39">
-        <v>0</v>
-      </c>
-      <c r="E24" s="39">
-        <v>0</v>
-      </c>
-      <c r="F24" s="39">
-        <v>0</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
         <v>0</v>
       </c>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="39">
-        <v>0</v>
-      </c>
-      <c r="D25" s="39">
-        <v>0</v>
-      </c>
-      <c r="E25" s="39">
-        <v>0</v>
-      </c>
-      <c r="F25" s="39">
-        <v>0</v>
-      </c>
-      <c r="G25" s="40">
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
         <v>0</v>
       </c>
       <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="39">
-        <v>0</v>
-      </c>
-      <c r="D26" s="39">
-        <v>0</v>
-      </c>
-      <c r="E26" s="39">
-        <v>0</v>
-      </c>
-      <c r="F26" s="39">
-        <v>0</v>
-      </c>
-      <c r="G26" s="40">
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
         <v>0</v>
       </c>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="39">
-        <v>0</v>
-      </c>
-      <c r="D27" s="39">
-        <v>0</v>
-      </c>
-      <c r="E27" s="39">
-        <v>0</v>
-      </c>
-      <c r="F27" s="39">
-        <v>0</v>
-      </c>
-      <c r="G27" s="40">
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
         <v>0</v>
       </c>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="39">
-        <v>0</v>
-      </c>
-      <c r="D28" s="39">
-        <v>0</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0</v>
-      </c>
-      <c r="F28" s="39">
-        <v>0</v>
-      </c>
-      <c r="G28" s="40">
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
         <v>0</v>
       </c>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="39">
-        <v>0</v>
-      </c>
-      <c r="D29" s="39">
-        <v>0</v>
-      </c>
-      <c r="E29" s="39">
-        <v>0</v>
-      </c>
-      <c r="F29" s="39">
-        <v>0</v>
-      </c>
-      <c r="G29" s="40">
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
         <v>0</v>
       </c>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="39">
-        <v>0</v>
-      </c>
-      <c r="D30" s="39">
-        <v>0</v>
-      </c>
-      <c r="E30" s="39">
-        <v>0</v>
-      </c>
-      <c r="F30" s="39">
-        <v>0</v>
-      </c>
-      <c r="G30" s="40">
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
         <v>0</v>
       </c>
       <c r="AK30" s="19"/>

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07857094-7A5F-4881-A121-1B381A0DE514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2C200-BE4C-4ADA-B39B-56933615A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK6" s="19"/>
     </row>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="19"/>
     </row>

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2C200-BE4C-4ADA-B39B-56933615A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C349BB02-8363-48F2-A1E8-7FE26489F1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,57 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -220,15 +175,9 @@
     <t>Estimación</t>
   </si>
   <si>
-    <t>Construcción</t>
-  </si>
-  <si>
     <t>Microservicios</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Despliegue</t>
   </si>
   <si>
@@ -244,14 +193,26 @@
     <t>Frontend</t>
   </si>
   <si>
-    <t>Activity 11d</t>
+    <t>Construcción I1</t>
+  </si>
+  <si>
+    <t>Revisión I1</t>
+  </si>
+  <si>
+    <t>Construcción I2</t>
+  </si>
+  <si>
+    <t>Testing I2</t>
+  </si>
+  <si>
+    <t>Cry, coffee and without sleep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -350,6 +311,36 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -568,7 +559,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,6 +685,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -717,7 +720,233 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1373,13 +1602,13 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
@@ -1391,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="2:75" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1401,21 +1630,21 @@
     </row>
     <row r="2" spans="2:75" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2" s="11">
         <v>67</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="34" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
@@ -1423,21 +1652,21 @@
       <c r="O2" s="36"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="34" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="36"/>
       <c r="U2" s="14"/>
       <c r="V2" s="27" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
       <c r="Y2" s="38"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="39" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="40"/>
       <c r="AC2" s="40"/>
@@ -1447,7 +1676,7 @@
       <c r="AG2" s="41"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="27" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="28"/>
       <c r="AK2" s="28"/>
@@ -1462,19 +1691,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>0</v>
@@ -1500,13 +1729,13 @@
       <c r="AA3" s="7"/>
       <c r="AK3" s="22"/>
       <c r="AL3" s="21" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="BQ3" s="21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="BV3" s="8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,145 +1952,145 @@
     </row>
     <row r="5" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C5" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G5" s="25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C6" s="24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="24">
+        <v>6</v>
+      </c>
+      <c r="G6" s="25">
         <v>1</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0.4</v>
       </c>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C7" s="24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="25">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C8" s="24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="24">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24">
         <v>4</v>
       </c>
-      <c r="F8" s="24">
-        <v>1</v>
-      </c>
       <c r="G8" s="25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C9" s="24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" s="24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C10" s="24">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="24">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F10" s="24">
         <v>1</v>
       </c>
       <c r="G10" s="25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="24">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D11" s="24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11" s="24">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="25">
         <v>0</v>
@@ -1869,20 +2098,20 @@
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>36</v>
+      <c r="B12" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="24">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D12" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="24">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F12" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
@@ -1890,41 +2119,42 @@
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="24">
-        <v>51</v>
-      </c>
-      <c r="D13" s="24">
-        <v>5</v>
-      </c>
-      <c r="E13" s="24">
-        <v>51</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="B13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="44">
+        <v>43</v>
+      </c>
+      <c r="D13" s="44">
+        <v>13</v>
+      </c>
+      <c r="E13" s="44">
+        <v>43</v>
+      </c>
+      <c r="F13" s="44">
         <v>0</v>
       </c>
-      <c r="AK13" s="19"/>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
+      <c r="AJ13" s="19"/>
     </row>
     <row r="14" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C14" s="24">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D14" s="24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="24">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F14" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="25">
         <v>0</v>
@@ -1932,17 +2162,17 @@
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>43</v>
+      <c r="B15" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="24">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D15" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="24">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F15" s="24">
         <v>0</v>
@@ -1953,17 +2183,17 @@
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>2</v>
+      <c r="B16" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D16" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F16" s="24">
         <v>0</v>
@@ -1973,297 +2203,135 @@
       </c>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
+    <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24">
-        <v>0</v>
-      </c>
-      <c r="F21" s="24">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="24">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
       <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0</v>
-      </c>
-      <c r="F28" s="24">
-        <v>0</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
-        <v>0</v>
-      </c>
-      <c r="F29" s="24">
-        <v>0</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
-        <v>16</v>
+      <c r="B30" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="C30" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E30" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="24">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G30" s="25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK30" s="19"/>
       <c r="BP30" s="23"/>
@@ -2289,101 +2357,153 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BW8 H10:BW13 H9:K9 M9:BW9 H15:BW30 H14:J14 L14:BW14">
-    <cfRule type="expression" dxfId="27" priority="35">
+  <conditionalFormatting sqref="H5:BW8 H9:K9 M9:BW9 H16:BW30 H15:K15 M15:BW15 H10:BW12 H14:BW14 BA13:BW13">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="40" priority="39">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="41">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="45">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="46">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="19" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4 BR4 BU4">
-    <cfRule type="expression" dxfId="18" priority="42">
+    <cfRule type="expression" dxfId="34" priority="42">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP4 BS4 BV4">
-    <cfRule type="expression" dxfId="17" priority="32">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>BP$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP31">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>BP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ4 BT4 BW4">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>BQ$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="7" priority="55">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="23" priority="71">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="56">
+    <cfRule type="expression" dxfId="22" priority="72">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="57">
+    <cfRule type="expression" dxfId="21" priority="73">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="58">
+    <cfRule type="expression" dxfId="20" priority="74">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="59">
+    <cfRule type="expression" dxfId="19" priority="75">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="18" priority="76">
       <formula>L$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="61">
+    <cfRule type="expression" dxfId="17" priority="77">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="62">
+    <cfRule type="expression" dxfId="16" priority="78">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="15" priority="87">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="88">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="89">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="90">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="91">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="92">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="93">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="94">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:AZ13">
+    <cfRule type="expression" dxfId="7" priority="103">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="104">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="105">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="106">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="108">
+      <formula>J$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="109">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="110">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C349BB02-8363-48F2-A1E8-7FE26489F1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580AAB47-B5F3-43C3-9962-8937278E5074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>PERIODS</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Testing I2</t>
-  </si>
-  <si>
-    <t>Cry, coffee and without sleep</t>
   </si>
 </sst>
 </file>
@@ -248,17 +245,20 @@
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -641,6 +641,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -685,18 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1602,7 +1602,7 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1643,66 +1643,66 @@
         <v>67</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="36"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="38"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
     </row>
     <row r="3" spans="2:75" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1739,12 +1739,12 @@
       </c>
     </row>
     <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="24">
@@ -2119,22 +2119,22 @@
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="29">
         <v>43</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="29">
         <v>13</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="29">
         <v>43</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="29">
         <v>0</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="28">
         <v>0</v>
       </c>
       <c r="AA13"/>
@@ -2162,7 +2162,7 @@
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="24">
@@ -2183,7 +2183,7 @@
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="24">
@@ -2315,24 +2315,12 @@
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>62</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24">
-        <v>29</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0.4</v>
-      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
       <c r="AK30" s="19"/>
       <c r="BP30" s="23"/>
       <c r="BQ30" s="23"/>
@@ -2529,7 +2517,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580AAB47-B5F3-43C3-9962-8937278E5074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705804D-B3B2-41FA-9552-250F912DE01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PERIODS</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Testing I2</t>
+  </si>
+  <si>
+    <t>werwer</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1605,7 @@
   <dimension ref="B1:BW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2204,6 +2207,9 @@
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
+++ b/Documentos UdeC Docs/Cronograma UdeC Docs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705804D-B3B2-41FA-9552-250F912DE01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F90CD-7399-455E-B912-2157B1BEBE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <t>Noviembre 1</t>
   </si>
   <si>
-    <t>Entrega 6 N</t>
-  </si>
-  <si>
     <t>Frontend</t>
   </si>
   <si>
@@ -205,14 +202,17 @@
     <t>Testing I2</t>
   </si>
   <si>
-    <t>werwer</t>
+    <t>Entrega 15 N</t>
+  </si>
+  <si>
+    <t>Revisión documentación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -345,8 +345,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +401,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -504,8 +516,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,8 +582,9 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,14 +723,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="10" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="19" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
@@ -1602,10 +1634,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BW30"/>
+  <dimension ref="B1:CL30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1618,10 +1650,11 @@
     <col min="38" max="38" width="8" customWidth="1"/>
     <col min="68" max="68" width="2.875" customWidth="1"/>
     <col min="69" max="69" width="10.125" customWidth="1"/>
-    <col min="74" max="74" width="9.875" customWidth="1"/>
+    <col min="74" max="74" width="3.25" customWidth="1"/>
+    <col min="87" max="87" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:75" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:90" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1664,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:75" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:90" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="11">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="38" t="s">
@@ -1689,7 +1722,7 @@
       <c r="AO2" s="32"/>
       <c r="AP2" s="32"/>
     </row>
-    <row r="3" spans="2:75" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:90" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
@@ -1737,11 +1770,12 @@
       <c r="BQ3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BV3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BV3" s="46"/>
+      <c r="CI3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1952,8 +1986,53 @@
       <c r="BW4" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX4" s="3">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="11">
+        <v>80</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>81</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>82</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
@@ -1973,8 +2052,9 @@
         <v>1</v>
       </c>
       <c r="AK5" s="19"/>
-    </row>
-    <row r="6" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BV5" s="47"/>
+    </row>
+    <row r="6" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
@@ -1995,7 +2075,7 @@
       </c>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
@@ -2012,11 +2092,11 @@
         <v>5</v>
       </c>
       <c r="G7" s="25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
@@ -2033,11 +2113,11 @@
         <v>4</v>
       </c>
       <c r="G8" s="25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
@@ -2058,161 +2138,176 @@
       </c>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="24">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24">
+        <v>20</v>
+      </c>
+      <c r="E10" s="24">
+        <v>31</v>
+      </c>
+      <c r="F10" s="24">
+        <v>20</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="19"/>
+    </row>
+    <row r="11" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="24">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24">
+        <v>45</v>
+      </c>
+      <c r="E11" s="24">
+        <v>33</v>
+      </c>
+      <c r="F11" s="24">
+        <v>45</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="AK11" s="19"/>
+    </row>
+    <row r="12" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="24">
-        <v>28</v>
-      </c>
-      <c r="D10" s="24">
-        <v>14</v>
-      </c>
-      <c r="E10" s="24">
-        <v>29</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="C12" s="24">
+        <v>48</v>
+      </c>
+      <c r="D12" s="24">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>48</v>
+      </c>
+      <c r="F12" s="24">
+        <v>3</v>
+      </c>
+      <c r="G12" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="25">
-        <v>0.02</v>
-      </c>
-      <c r="AK10" s="19"/>
-    </row>
-    <row r="11" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="AK12" s="19"/>
+    </row>
+    <row r="13" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="29">
+        <v>51</v>
+      </c>
+      <c r="D13" s="29">
         <v>25</v>
       </c>
-      <c r="C11" s="24">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24">
-        <v>18</v>
-      </c>
-      <c r="E11" s="24">
-        <v>31</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="19"/>
-    </row>
-    <row r="12" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="24">
-        <v>41</v>
-      </c>
-      <c r="D12" s="24">
-        <v>2</v>
-      </c>
-      <c r="E12" s="24">
-        <v>41</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="19"/>
-    </row>
-    <row r="13" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="29">
-        <v>43</v>
-      </c>
-      <c r="D13" s="29">
-        <v>13</v>
-      </c>
       <c r="E13" s="29">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F13" s="29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G13" s="28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA13"/>
       <c r="AJ13" s="19"/>
     </row>
-    <row r="14" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="24">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D14" s="24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14" s="24">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F14" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="24">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D15" s="24">
         <v>5</v>
       </c>
       <c r="E15" s="24">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F15" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="25">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+    <row r="16" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="24">
+        <v>76</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24">
+        <v>76</v>
+      </c>
+      <c r="F16" s="24">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="19"/>
+    </row>
+    <row r="17" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24">
-        <v>62</v>
-      </c>
-      <c r="D16" s="24">
-        <v>5</v>
-      </c>
-      <c r="E16" s="24">
-        <v>62</v>
-      </c>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="19"/>
-    </row>
-    <row r="17" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>30</v>
+      <c r="C17" s="24">
+        <v>77</v>
+      </c>
+      <c r="D17" s="24">
+        <v>3</v>
+      </c>
+      <c r="E17" s="24">
+        <v>77</v>
+      </c>
+      <c r="F17" s="24">
+        <v>3</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
       </c>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -2221,7 +2316,7 @@
       <c r="G18" s="25"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2230,7 +2325,7 @@
       <c r="G19" s="25"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2239,7 +2334,7 @@
       <c r="G20" s="25"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -2248,7 +2343,7 @@
       <c r="G21" s="25"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2257,7 +2352,7 @@
       <c r="G22" s="25"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2266,7 +2361,7 @@
       <c r="G23" s="25"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2275,7 +2370,7 @@
       <c r="G24" s="25"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -2284,7 +2379,7 @@
       <c r="G25" s="25"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2293,7 +2388,7 @@
       <c r="G26" s="25"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2302,7 +2397,7 @@
       <c r="G27" s="25"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -2311,7 +2406,7 @@
       <c r="G28" s="25"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -2320,7 +2415,7 @@
       <c r="G29" s="25"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -2336,6 +2431,21 @@
       <c r="BU30" s="23"/>
       <c r="BV30" s="23"/>
       <c r="BW30" s="23"/>
+      <c r="BX30" s="23"/>
+      <c r="BY30" s="23"/>
+      <c r="BZ30" s="23"/>
+      <c r="CA30" s="23"/>
+      <c r="CB30" s="23"/>
+      <c r="CC30" s="23"/>
+      <c r="CD30" s="23"/>
+      <c r="CE30" s="23"/>
+      <c r="CF30" s="23"/>
+      <c r="CG30" s="23"/>
+      <c r="CH30" s="23"/>
+      <c r="CI30" s="23"/>
+      <c r="CJ30" s="23"/>
+      <c r="CK30" s="23"/>
+      <c r="CL30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2351,7 +2461,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BW8 H9:K9 M9:BW9 H16:BW30 H15:K15 M15:BW15 H10:BW12 H14:BW14 BA13:BW13">
+  <conditionalFormatting sqref="H9:K9 H15:K15 H5:BU8 M9:BU9 H16:BU30 M15:BU15 H10:BU12 H14:BU14 BA13:BU13 BV5:CL30">
     <cfRule type="expression" dxfId="43" priority="35">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2382,12 +2492,12 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4 BR4 BU4">
+  <conditionalFormatting sqref="H4:BO4 BR4 BU4:CL4">
     <cfRule type="expression" dxfId="34" priority="42">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP4 BS4 BV4">
+  <conditionalFormatting sqref="BP4 BS4">
     <cfRule type="expression" dxfId="33" priority="32">
       <formula>BP$4=period_selected</formula>
     </cfRule>
@@ -2418,7 +2528,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ4 BT4 BW4">
+  <conditionalFormatting sqref="BQ4 BT4">
     <cfRule type="expression" dxfId="24" priority="1">
       <formula>BQ$4=period_selected</formula>
     </cfRule>
